--- a/bin/sheets/main_db/teams/BAN/PlayerPerformance_3488.xlsx
+++ b/bin/sheets/main_db/teams/BAN/PlayerPerformance_3488.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3488</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mohammad Mahmudullah</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Off Break</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2718</t>
+          <t>2718</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -544,7 +609,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>18/03/2008</t>
@@ -552,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2805</t>
+          <t>2805</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -604,7 +668,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2806</t>
+          <t>2806</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -656,7 +720,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2807</t>
+          <t>2807</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -708,7 +772,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2808</t>
+          <t>2808</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -760,7 +824,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2810</t>
+          <t>2810</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -812,7 +876,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2812</t>
+          <t>2812</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -864,7 +928,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2814</t>
+          <t>2814</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -916,7 +980,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2815</t>
+          <t>2815</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -968,7 +1032,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2816</t>
+          <t>2816</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1020,7 +1084,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2818</t>
+          <t>2818</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1072,7 +1136,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2823</t>
+          <t>2823</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1124,7 +1188,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2827</t>
+          <t>2827</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1176,7 +1240,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2833</t>
+          <t>2833</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1228,7 +1292,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2838</t>
+          <t>2838</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1280,7 +1344,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2845</t>
+          <t>2845</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1332,7 +1396,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2879</t>
+          <t>2879</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1372,7 +1436,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>09/10/2008</t>
@@ -1380,7 +1443,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2880</t>
+          <t>2880</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1432,7 +1495,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2881</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1472,7 +1535,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>14/01/2009</t>
@@ -1480,7 +1542,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2915</t>
+          <t>2915</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1532,7 +1594,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2916</t>
+          <t>2916</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1584,7 +1646,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2919</t>
+          <t>2919</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1624,7 +1686,6 @@
           <t>23</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>21/01/2009</t>
@@ -1632,7 +1693,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2921</t>
+          <t>2921</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1672,7 +1733,6 @@
           <t>24</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>23/01/2009</t>
@@ -1680,7 +1740,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2923</t>
+          <t>2923</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1732,7 +1792,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2986</t>
+          <t>2986</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1784,7 +1844,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2987</t>
+          <t>2987</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1836,7 +1896,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2989</t>
+          <t>2989</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1876,7 +1936,6 @@
           <t>28</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>09/08/2009</t>
@@ -1884,7 +1943,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2994</t>
+          <t>2994</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1936,7 +1995,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2995</t>
+          <t>2995</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1988,7 +2047,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2996</t>
+          <t>2996</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2040,7 +2099,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2997</t>
+          <t>2997</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2092,7 +2151,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2998</t>
+          <t>2998</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2144,7 +2203,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3041</t>
+          <t>3041</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2184,7 +2243,6 @@
           <t>34</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>29/10/2009</t>
@@ -2192,7 +2250,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3043</t>
+          <t>3043</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2244,7 +2302,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3044</t>
+          <t>3044</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2284,7 +2342,6 @@
           <t>36</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>03/11/2009</t>
@@ -2292,7 +2349,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3048</t>
+          <t>3048</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2344,7 +2401,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3049</t>
+          <t>3049</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2396,7 +2453,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3067</t>
+          <t>3067</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2448,7 +2505,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3069</t>
+          <t>3069</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2500,7 +2557,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3070</t>
+          <t>3070</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2552,7 +2609,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3072</t>
+          <t>3072</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2604,7 +2661,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3079</t>
+          <t>3079</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2656,7 +2713,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3081</t>
+          <t>3081</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2708,7 +2765,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3083</t>
+          <t>3083</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2760,7 +2817,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3094</t>
+          <t>3094</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2812,7 +2869,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3095</t>
+          <t>3095</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2864,7 +2921,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3098</t>
+          <t>3098</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2916,7 +2973,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3123</t>
+          <t>3123</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2968,7 +3025,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3125</t>
+          <t>3125</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3020,7 +3077,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3128</t>
+          <t>3128</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3072,7 +3129,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3148</t>
+          <t>3148</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3124,7 +3181,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3155</t>
+          <t>3155</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3176,7 +3233,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3156</t>
+          <t>3156</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3228,7 +3285,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3157</t>
+          <t>3157</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3268,7 +3325,6 @@
           <t>55</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>16/07/2010</t>
@@ -3276,7 +3332,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3158</t>
+          <t>3158</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3328,7 +3384,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3160</t>
+          <t>3160</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3380,7 +3436,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3182</t>
+          <t>3182</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3420,7 +3476,6 @@
           <t>58</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>11/10/2010</t>
@@ -3428,7 +3483,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3186</t>
+          <t>3186</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3480,7 +3535,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3188</t>
+          <t>3188</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3532,7 +3587,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3190</t>
+          <t>3190</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3584,7 +3639,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3205</t>
+          <t>3205</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3636,7 +3691,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3235</t>
+          <t>3235</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3688,7 +3743,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3262</t>
+          <t>3262</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3728,7 +3783,6 @@
           <t>64</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
           <t>14/03/2011</t>
@@ -3736,7 +3790,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3266</t>
+          <t>3266</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3788,7 +3842,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3273</t>
+          <t>3273</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3840,7 +3894,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3284</t>
+          <t>3284</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3892,7 +3946,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3285</t>
+          <t>3285</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3944,7 +3998,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3286</t>
+          <t>3286</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3996,7 +4050,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3312</t>
+          <t>3312</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4048,7 +4102,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3313</t>
+          <t>3313</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4100,7 +4154,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3315</t>
+          <t>3315</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4140,7 +4194,6 @@
           <t>72</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
           <t>19/08/2011</t>
@@ -4148,7 +4201,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3317</t>
+          <t>3317</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4200,7 +4253,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3319</t>
+          <t>3319</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4252,7 +4305,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3354</t>
+          <t>3354</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4304,7 +4357,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3356</t>
+          <t>3356</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4356,7 +4409,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3358</t>
+          <t>3358</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4408,7 +4461,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3394</t>
+          <t>3394</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4460,7 +4513,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3397</t>
+          <t>3397</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4512,7 +4565,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3401</t>
+          <t>3401</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4564,7 +4617,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3403</t>
+          <t>3403</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4604,7 +4657,6 @@
           <t>81</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
           <t>30/11/2012</t>
@@ -4612,7 +4664,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3450</t>
+          <t>3450</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4664,7 +4716,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3451</t>
+          <t>3451</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4716,7 +4768,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3452</t>
+          <t>3452</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4768,7 +4820,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3453</t>
+          <t>3453</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4820,7 +4872,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3454</t>
+          <t>3454</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4872,7 +4924,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3490</t>
+          <t>3490</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4912,7 +4964,6 @@
           <t>87</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr">
         <is>
           <t>25/03/2013</t>
@@ -4920,7 +4971,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3492</t>
+          <t>3492</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4972,7 +5023,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3493</t>
+          <t>3493</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5024,7 +5075,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3494</t>
+          <t>3494</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5076,7 +5127,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3495</t>
+          <t>3495</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5128,7 +5179,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3496</t>
+          <t>3496</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5180,7 +5231,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3567</t>
+          <t>3567</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5232,7 +5283,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3570</t>
+          <t>3570</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5284,7 +5335,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3573</t>
+          <t>3573</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5336,7 +5387,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3614</t>
+          <t>3614</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5388,7 +5439,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3615</t>
+          <t>3615</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5440,7 +5491,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3616</t>
+          <t>3616</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5480,7 +5531,6 @@
           <t>98</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr">
         <is>
           <t>04/03/2014</t>
@@ -5488,7 +5538,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3627</t>
+          <t>3627</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5540,7 +5590,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3630</t>
+          <t>3630</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5592,7 +5642,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3643</t>
+          <t>3643</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5644,7 +5694,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3644</t>
+          <t>3644</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5684,7 +5734,6 @@
           <t>102</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr">
         <is>
           <t>19/06/2014</t>
@@ -5692,7 +5741,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3645</t>
+          <t>3645</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5744,7 +5793,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3655</t>
+          <t>3655</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5796,7 +5845,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3657</t>
+          <t>3657</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5848,7 +5897,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3661</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5900,7 +5949,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3699</t>
+          <t>3699</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5952,7 +6001,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3701</t>
+          <t>3701</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -6004,7 +6053,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3702</t>
+          <t>3702</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -6056,7 +6105,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3704</t>
+          <t>3704</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -6108,7 +6157,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3708</t>
+          <t>3708</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -6160,7 +6209,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3754</t>
+          <t>3754</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -6212,7 +6261,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3765</t>
+          <t>3765</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -6264,7 +6313,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3774</t>
+          <t>3774</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -6316,7 +6365,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3780</t>
+          <t>3780</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -6368,7 +6417,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3784</t>
+          <t>3784</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6420,7 +6469,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3791</t>
+          <t>3791</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6472,7 +6521,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3797</t>
+          <t>3797</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6524,7 +6573,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3798</t>
+          <t>3798</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6576,7 +6625,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3799</t>
+          <t>3799</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6628,7 +6677,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3813</t>
+          <t>3813</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6680,7 +6729,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3816</t>
+          <t>3816</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6720,7 +6769,6 @@
           <t>122</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr"/>
       <c r="C123" t="inlineStr">
         <is>
           <t>15/07/2015</t>
@@ -6728,7 +6776,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3818</t>
+          <t>3818</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -6780,7 +6828,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3854</t>
+          <t>3854</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -6832,7 +6880,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3856</t>
+          <t>3856</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -6884,7 +6932,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3857</t>
+          <t>3857</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -6936,7 +6984,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3936</t>
+          <t>3936</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -6988,7 +7036,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3938</t>
+          <t>3938</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -7040,7 +7088,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3941</t>
+          <t>3941</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -7092,7 +7140,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3946</t>
+          <t>3946</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -7144,7 +7192,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3948</t>
+          <t>3948</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -7196,7 +7244,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3949</t>
+          <t>3949</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -7248,7 +7296,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3969</t>
+          <t>3969</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -7300,7 +7348,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3970</t>
+          <t>3970</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -7352,7 +7400,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3971</t>
+          <t>3971</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -7404,7 +7452,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4011</t>
+          <t>4011</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -7444,7 +7492,6 @@
           <t>136</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr"/>
       <c r="C137" t="inlineStr">
         <is>
           <t>28/03/2017</t>
@@ -7452,7 +7499,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4012</t>
+          <t>4012</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -7504,7 +7551,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4014</t>
+          <t>4014</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -7556,7 +7603,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4022</t>
+          <t>4022</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -7608,7 +7655,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4024</t>
+          <t>4024</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -7648,7 +7695,6 @@
           <t>140</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr">
         <is>
           <t>19/05/2017</t>
@@ -7656,7 +7702,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4025</t>
+          <t>4025</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -7708,7 +7754,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4027</t>
+          <t>4027</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -7760,7 +7806,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4031</t>
+          <t>4031</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -7812,7 +7858,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4035</t>
+          <t>4035</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -7864,7 +7910,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4039</t>
+          <t>4039</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -7916,7 +7962,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4047</t>
+          <t>4047</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -7968,7 +8014,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4080</t>
+          <t>4080</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -8020,7 +8066,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4083</t>
+          <t>4083</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -8072,7 +8118,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4086</t>
+          <t>4086</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -8112,7 +8158,6 @@
           <t>149</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr"/>
       <c r="C150" t="inlineStr">
         <is>
           <t>15/01/2018</t>
@@ -8120,7 +8165,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4109</t>
+          <t>4109</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -8172,7 +8217,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4116</t>
+          <t>4116</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -8224,7 +8269,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4121</t>
+          <t>4121</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -8276,7 +8321,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4122</t>
+          <t>4122</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -8328,7 +8373,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4124</t>
+          <t>4124</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -8380,7 +8425,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4179</t>
+          <t>4179</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -8432,7 +8477,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4180</t>
+          <t>4180</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -8484,7 +8529,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4181</t>
+          <t>4181</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -8536,7 +8581,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4193</t>
+          <t>4193</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -8588,7 +8633,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4198</t>
+          <t>4198</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -8640,7 +8685,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4199</t>
+          <t>4199</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -8692,7 +8737,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4202</t>
+          <t>4202</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -8744,7 +8789,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4204</t>
+          <t>4204</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -8796,7 +8841,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4205</t>
+          <t>4205</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -8848,7 +8893,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4214</t>
+          <t>4214</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -8888,7 +8933,6 @@
           <t>164</t>
         </is>
       </c>
-      <c r="B165" t="inlineStr"/>
       <c r="C165" t="inlineStr">
         <is>
           <t>24/10/2018</t>
@@ -8896,7 +8940,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4217</t>
+          <t>4217</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -8936,7 +8980,6 @@
           <t>165</t>
         </is>
       </c>
-      <c r="B166" t="inlineStr"/>
       <c r="C166" t="inlineStr">
         <is>
           <t>26/10/2018</t>
@@ -8944,7 +8987,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4218</t>
+          <t>4218</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -8996,7 +9039,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4228</t>
+          <t>4228</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -9048,7 +9091,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4229</t>
+          <t>4229</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -9088,7 +9131,6 @@
           <t>168</t>
         </is>
       </c>
-      <c r="B169" t="inlineStr"/>
       <c r="C169" t="inlineStr">
         <is>
           <t>14/12/2018</t>
@@ -9096,7 +9138,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4230</t>
+          <t>4230</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -9148,7 +9190,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4250</t>
+          <t>4250</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -9200,7 +9242,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4251</t>
+          <t>4251</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -9252,7 +9294,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4252</t>
+          <t>4252</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -9292,7 +9334,6 @@
           <t>172</t>
         </is>
       </c>
-      <c r="B173" t="inlineStr"/>
       <c r="C173" t="inlineStr">
         <is>
           <t>07/05/2019</t>
@@ -9300,7 +9341,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4286</t>
+          <t>4286</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -9352,7 +9393,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4293</t>
+          <t>4293</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -9404,7 +9445,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4295</t>
+          <t>4295</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -9456,7 +9497,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4296</t>
+          <t>4296</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -9508,7 +9549,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4307</t>
+          <t>4307</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -9560,7 +9601,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4311</t>
+          <t>4311</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -9612,7 +9653,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4314</t>
+          <t>4314</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -9652,7 +9693,6 @@
           <t>179</t>
         </is>
       </c>
-      <c r="B180" t="inlineStr"/>
       <c r="C180" t="inlineStr">
         <is>
           <t>17/06/2019</t>
@@ -9660,7 +9700,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4325</t>
+          <t>4325</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -9712,7 +9752,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4329</t>
+          <t>4329</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -9764,7 +9804,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4335</t>
+          <t>4335</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -9816,7 +9856,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4349</t>
+          <t>4349</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -9868,7 +9908,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4356</t>
+          <t>4356</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -9920,7 +9960,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4357</t>
+          <t>4357</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -9972,7 +10012,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4358</t>
+          <t>4358</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -10024,7 +10064,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4416</t>
+          <t>4416</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -10076,7 +10116,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4418</t>
+          <t>4418</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -10128,7 +10168,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4420</t>
+          <t>4420</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -10180,7 +10220,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4443</t>
+          <t>4443</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -10220,7 +10260,6 @@
           <t>190</t>
         </is>
       </c>
-      <c r="B191" t="inlineStr"/>
       <c r="C191" t="inlineStr">
         <is>
           <t>22/01/2021</t>
@@ -10228,7 +10267,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4445</t>
+          <t>4445</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -10280,7 +10319,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4447</t>
+          <t>4447</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -10332,7 +10371,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4452</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -10384,7 +10423,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4453</t>
+          <t>4453</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -10436,7 +10475,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4455</t>
+          <t>4455</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -10488,7 +10527,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4463</t>
+          <t>4463</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -10540,7 +10579,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4464</t>
+          <t>4464</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -10592,7 +10631,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4465</t>
+          <t>4465</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -10644,7 +10683,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4477</t>
+          <t>4477</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -10696,7 +10735,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4479</t>
+          <t>4479</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -10748,7 +10787,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4481</t>
+          <t>4481</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -10800,7 +10839,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4537</t>
+          <t>4537</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -10852,7 +10891,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4538</t>
+          <t>4538</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -10904,7 +10943,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4539</t>
+          <t>4539</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -10956,7 +10995,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4550</t>
+          <t>4550</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -11008,7 +11047,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4557</t>
+          <t>4557</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -11048,7 +11087,6 @@
           <t>206</t>
         </is>
       </c>
-      <c r="B207" t="inlineStr"/>
       <c r="C207" t="inlineStr">
         <is>
           <t>23/03/2022</t>
@@ -11056,7 +11094,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4559</t>
+          <t>4559</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -11108,7 +11146,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4606</t>
+          <t>4606</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -11148,7 +11186,6 @@
           <t>208</t>
         </is>
       </c>
-      <c r="B209" t="inlineStr"/>
       <c r="C209" t="inlineStr">
         <is>
           <t>13/07/2022</t>
@@ -11156,7 +11193,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4611</t>
+          <t>4611</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -11208,7 +11245,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4616</t>
+          <t>4616</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -11260,7 +11297,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4626</t>
+          <t>4626</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -11312,7 +11349,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4627</t>
+          <t>4627</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -11364,7 +11401,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4628</t>
+          <t>4628</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -11416,7 +11453,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4679</t>
+          <t>4679</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -11468,7 +11505,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4682</t>
+          <t>4682</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -11520,7 +11557,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4685</t>
+          <t>4685</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -11572,7 +11609,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4711</t>
+          <t>4711</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -11624,7 +11661,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4713</t>
+          <t>4713</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -11676,7 +11713,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4717</t>
+          <t>4717</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -11715,7 +11752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11737,7 +11774,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -11774,7 +11811,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2718</t>
+          <t>2718</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -11811,7 +11848,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2805</t>
+          <t>2805</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -11848,7 +11885,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2806</t>
+          <t>2806</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -11885,7 +11922,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2807</t>
+          <t>2807</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -11922,7 +11959,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2808</t>
+          <t>2808</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -11959,7 +11996,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2810</t>
+          <t>2810</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -11996,7 +12033,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2812</t>
+          <t>2812</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -12033,7 +12070,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2814</t>
+          <t>2814</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -12070,7 +12107,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2815</t>
+          <t>2815</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -12107,7 +12144,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2816</t>
+          <t>2816</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -12144,7 +12181,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2818</t>
+          <t>2818</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -12181,7 +12218,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2823</t>
+          <t>2823</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -12218,7 +12255,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2827</t>
+          <t>2827</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -12255,7 +12292,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2833</t>
+          <t>2833</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -12292,7 +12329,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2838</t>
+          <t>2838</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -12329,7 +12366,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2845</t>
+          <t>2845</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -12366,7 +12403,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2879</t>
+          <t>2879</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -12403,7 +12440,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2880</t>
+          <t>2880</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -12440,7 +12477,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2915</t>
+          <t>2915</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -12477,7 +12514,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2919</t>
+          <t>2919</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -12514,7 +12551,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2921</t>
+          <t>2921</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -12551,7 +12588,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2923</t>
+          <t>2923</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -12588,7 +12625,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2986</t>
+          <t>2986</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -12625,7 +12662,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2987</t>
+          <t>2987</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -12662,7 +12699,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2989</t>
+          <t>2989</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -12699,7 +12736,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2994</t>
+          <t>2994</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -12736,7 +12773,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2995</t>
+          <t>2995</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -12773,7 +12810,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2996</t>
+          <t>2996</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -12810,7 +12847,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2997</t>
+          <t>2997</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -12847,7 +12884,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2998</t>
+          <t>2998</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -12884,7 +12921,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3041</t>
+          <t>3041</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -12921,7 +12958,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3043</t>
+          <t>3043</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -12958,7 +12995,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3044</t>
+          <t>3044</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -12995,7 +13032,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3049</t>
+          <t>3049</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -13032,7 +13069,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3067</t>
+          <t>3067</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -13069,7 +13106,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3069</t>
+          <t>3069</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -13106,7 +13143,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3070</t>
+          <t>3070</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -13143,7 +13180,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3072</t>
+          <t>3072</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -13180,7 +13217,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3079</t>
+          <t>3079</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -13217,7 +13254,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3083</t>
+          <t>3083</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -13254,7 +13291,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3094</t>
+          <t>3094</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -13291,7 +13328,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3095</t>
+          <t>3095</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -13328,7 +13365,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3098</t>
+          <t>3098</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -13365,7 +13402,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3125</t>
+          <t>3125</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -13402,7 +13439,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3128</t>
+          <t>3128</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -13439,7 +13476,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3148</t>
+          <t>3148</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -13476,7 +13513,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3156</t>
+          <t>3156</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -13513,7 +13550,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3157</t>
+          <t>3157</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -13550,7 +13587,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3158</t>
+          <t>3158</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -13587,7 +13624,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3182</t>
+          <t>3182</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -13624,7 +13661,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3186</t>
+          <t>3186</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -13661,7 +13698,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3188</t>
+          <t>3188</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -13698,7 +13735,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3190</t>
+          <t>3190</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -13735,7 +13772,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3205</t>
+          <t>3205</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -13772,7 +13809,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3235</t>
+          <t>3235</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -13809,7 +13846,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3262</t>
+          <t>3262</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -13846,7 +13883,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3273</t>
+          <t>3273</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -13883,7 +13920,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3284</t>
+          <t>3284</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -13920,7 +13957,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3285</t>
+          <t>3285</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -13957,7 +13994,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3286</t>
+          <t>3286</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -13994,7 +14031,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3312</t>
+          <t>3312</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -14031,7 +14068,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3313</t>
+          <t>3313</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -14068,7 +14105,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3315</t>
+          <t>3315</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -14105,7 +14142,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3317</t>
+          <t>3317</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -14142,7 +14179,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3319</t>
+          <t>3319</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -14179,7 +14216,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3358</t>
+          <t>3358</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -14216,7 +14253,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3394</t>
+          <t>3394</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -14253,7 +14290,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3397</t>
+          <t>3397</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -14290,7 +14327,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3401</t>
+          <t>3401</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -14327,7 +14364,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3403</t>
+          <t>3403</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -14364,7 +14401,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3450</t>
+          <t>3450</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -14401,7 +14438,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3451</t>
+          <t>3451</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -14438,7 +14475,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3452</t>
+          <t>3452</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -14475,7 +14512,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3453</t>
+          <t>3453</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -14512,7 +14549,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3454</t>
+          <t>3454</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -14549,7 +14586,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3490</t>
+          <t>3490</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -14586,7 +14623,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3493</t>
+          <t>3493</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -14623,7 +14660,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3494</t>
+          <t>3494</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -14660,7 +14697,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3495</t>
+          <t>3495</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -14697,7 +14734,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3496</t>
+          <t>3496</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -14734,7 +14771,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3567</t>
+          <t>3567</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -14771,7 +14808,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3570</t>
+          <t>3570</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -14808,7 +14845,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3573</t>
+          <t>3573</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -14845,7 +14882,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3614</t>
+          <t>3614</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -14882,7 +14919,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3615</t>
+          <t>3615</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -14919,7 +14956,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3616</t>
+          <t>3616</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -14956,7 +14993,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3627</t>
+          <t>3627</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -14993,7 +15030,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3630</t>
+          <t>3630</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -15030,7 +15067,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3643</t>
+          <t>3643</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -15067,7 +15104,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3645</t>
+          <t>3645</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -15104,7 +15141,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3655</t>
+          <t>3655</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -15141,7 +15178,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3657</t>
+          <t>3657</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -15178,7 +15215,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3661</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -15215,7 +15252,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3699</t>
+          <t>3699</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -15252,7 +15289,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3701</t>
+          <t>3701</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -15289,7 +15326,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3702</t>
+          <t>3702</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -15326,7 +15363,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3704</t>
+          <t>3704</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -15363,7 +15400,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3754</t>
+          <t>3754</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -15400,7 +15437,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3765</t>
+          <t>3765</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -15437,7 +15474,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3774</t>
+          <t>3774</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -15474,7 +15511,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3784</t>
+          <t>3784</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -15511,7 +15548,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3791</t>
+          <t>3791</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -15548,7 +15585,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3797</t>
+          <t>3797</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -15585,7 +15622,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3798</t>
+          <t>3798</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -15622,7 +15659,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3799</t>
+          <t>3799</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -15659,7 +15696,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3813</t>
+          <t>3813</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -15696,7 +15733,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3816</t>
+          <t>3816</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -15733,7 +15770,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3818</t>
+          <t>3818</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -15770,7 +15807,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3936</t>
+          <t>3936</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -15807,7 +15844,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3946</t>
+          <t>3946</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -15844,7 +15881,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3971</t>
+          <t>3971</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -15881,7 +15918,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4014</t>
+          <t>4014</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -15918,7 +15955,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4024</t>
+          <t>4024</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -15955,7 +15992,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4025</t>
+          <t>4025</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -15992,7 +16029,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4047</t>
+          <t>4047</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -16029,7 +16066,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4080</t>
+          <t>4080</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -16066,7 +16103,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4083</t>
+          <t>4083</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -16103,7 +16140,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4086</t>
+          <t>4086</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -16140,7 +16177,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4124</t>
+          <t>4124</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -16177,7 +16214,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4181</t>
+          <t>4181</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -16214,7 +16251,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4198</t>
+          <t>4198</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -16251,7 +16288,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4202</t>
+          <t>4202</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -16288,7 +16325,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4204</t>
+          <t>4204</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -16325,7 +16362,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4205</t>
+          <t>4205</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -16362,7 +16399,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4214</t>
+          <t>4214</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -16399,7 +16436,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4217</t>
+          <t>4217</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -16436,7 +16473,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4218</t>
+          <t>4218</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -16473,7 +16510,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4229</t>
+          <t>4229</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -16510,7 +16547,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4230</t>
+          <t>4230</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -16547,7 +16584,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4250</t>
+          <t>4250</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -16584,7 +16621,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4251</t>
+          <t>4251</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -16621,7 +16658,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4252</t>
+          <t>4252</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -16658,7 +16695,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4356</t>
+          <t>4356</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -16695,7 +16732,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4358</t>
+          <t>4358</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -16732,7 +16769,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4416</t>
+          <t>4416</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -16769,7 +16806,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4418</t>
+          <t>4418</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -16806,7 +16843,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4447</t>
+          <t>4447</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -16843,7 +16880,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4463</t>
+          <t>4463</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -16880,7 +16917,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4481</t>
+          <t>4481</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -16917,7 +16954,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4537</t>
+          <t>4537</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -16954,7 +16991,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4538</t>
+          <t>4538</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -16991,7 +17028,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4550</t>
+          <t>4550</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -17028,7 +17065,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4557</t>
+          <t>4557</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -17065,7 +17102,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4626</t>
+          <t>4626</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -17102,7 +17139,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4682</t>
+          <t>4682</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -17139,7 +17176,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4685</t>
+          <t>4685</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -17165,6 +17202,587 @@
       <c r="G147" t="inlineStr">
         <is>
           <t>0/11</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>10.74%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4481</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4537</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3.65%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4538</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4539</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>15.10%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4550</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>7.96%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4557</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>12.89%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4559</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4606</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4611</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4616</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>13.41%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4626</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>6.60%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4627</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>27.59%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4628</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>15.23%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4679</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>7.49%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4682</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>28.41%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4685</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4711</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>6</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>14.83%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4713</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>6</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>16.49%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4717</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>6</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>3.25%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/BAN/PlayerPerformance_3488.xlsx
+++ b/bin/sheets/main_db/teams/BAN/PlayerPerformance_3488.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17305,7 +17306,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -17348,10 +17348,6 @@
           <t>4538</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -17457,9 +17453,6 @@
       <c r="B9" t="n">
         <v>6</v>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -17472,10 +17465,6 @@
           <t>4606</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -17491,9 +17480,6 @@
       <c r="B11" t="n">
         <v>4</v>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -17686,10 +17672,6 @@
           <t>4685</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>NO</t>
@@ -17785,6 +17767,302 @@
           <t>NO</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4218</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4229</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4230</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4250</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4252</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4356</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4358</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4416</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4418</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4447</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4463</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4481</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4537</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4538</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4550</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4557</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4626</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4682</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4685</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/BAN/PlayerPerformance_3488.xlsx
+++ b/bin/sheets/main_db/teams/BAN/PlayerPerformance_3488.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4977,7 +4976,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -5747,7 +5746,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -7505,7 +7504,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -17306,6 +17305,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -17348,6 +17348,10 @@
           <t>4538</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -17453,6 +17457,9 @@
       <c r="B9" t="n">
         <v>6</v>
       </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -17465,6 +17472,10 @@
           <t>4606</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -17480,6 +17491,9 @@
       <c r="B11" t="n">
         <v>4</v>
       </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -17672,6 +17686,10 @@
           <t>4685</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>NO</t>
@@ -17767,302 +17785,6 @@
           <t>NO</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4218</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4229</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4230</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4250</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4251</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4252</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4356</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4358</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4416</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4418</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4447</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4463</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4481</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4537</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4538</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4550</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4557</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4626</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4682</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4685</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/BAN/PlayerPerformance_3488.xlsx
+++ b/bin/sheets/main_db/teams/BAN/PlayerPerformance_3488.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -609,6 +608,7 @@
           <t>2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>18/03/2008</t>
@@ -1436,6 +1436,7 @@
           <t>18</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>09/10/2008</t>
@@ -1535,6 +1536,7 @@
           <t>20</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>14/01/2009</t>
@@ -1686,6 +1688,7 @@
           <t>23</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>21/01/2009</t>
@@ -1733,6 +1736,7 @@
           <t>24</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>23/01/2009</t>
@@ -1936,6 +1940,7 @@
           <t>28</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>09/08/2009</t>
@@ -2243,6 +2248,7 @@
           <t>34</t>
         </is>
       </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>29/10/2009</t>
@@ -2342,6 +2348,7 @@
           <t>36</t>
         </is>
       </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>03/11/2009</t>
@@ -3325,6 +3332,7 @@
           <t>55</t>
         </is>
       </c>
+      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>16/07/2010</t>
@@ -3476,6 +3484,7 @@
           <t>58</t>
         </is>
       </c>
+      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>11/10/2010</t>
@@ -3783,6 +3792,7 @@
           <t>64</t>
         </is>
       </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
           <t>14/03/2011</t>
@@ -4194,6 +4204,7 @@
           <t>72</t>
         </is>
       </c>
+      <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
           <t>19/08/2011</t>
@@ -4657,6 +4668,7 @@
           <t>81</t>
         </is>
       </c>
+      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
           <t>30/11/2012</t>
@@ -4964,6 +4976,7 @@
           <t>87</t>
         </is>
       </c>
+      <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr">
         <is>
           <t>25/03/2013</t>
@@ -5531,6 +5544,7 @@
           <t>98</t>
         </is>
       </c>
+      <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr">
         <is>
           <t>04/03/2014</t>
@@ -5734,6 +5748,7 @@
           <t>102</t>
         </is>
       </c>
+      <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr">
         <is>
           <t>19/06/2014</t>
@@ -6769,6 +6784,7 @@
           <t>122</t>
         </is>
       </c>
+      <c r="B123" t="inlineStr"/>
       <c r="C123" t="inlineStr">
         <is>
           <t>15/07/2015</t>
@@ -7492,6 +7508,7 @@
           <t>136</t>
         </is>
       </c>
+      <c r="B137" t="inlineStr"/>
       <c r="C137" t="inlineStr">
         <is>
           <t>28/03/2017</t>
@@ -7695,6 +7712,7 @@
           <t>140</t>
         </is>
       </c>
+      <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr">
         <is>
           <t>19/05/2017</t>
@@ -8158,6 +8176,7 @@
           <t>149</t>
         </is>
       </c>
+      <c r="B150" t="inlineStr"/>
       <c r="C150" t="inlineStr">
         <is>
           <t>15/01/2018</t>
@@ -8933,6 +8952,7 @@
           <t>164</t>
         </is>
       </c>
+      <c r="B165" t="inlineStr"/>
       <c r="C165" t="inlineStr">
         <is>
           <t>24/10/2018</t>
@@ -8980,6 +9000,7 @@
           <t>165</t>
         </is>
       </c>
+      <c r="B166" t="inlineStr"/>
       <c r="C166" t="inlineStr">
         <is>
           <t>26/10/2018</t>
@@ -9131,6 +9152,7 @@
           <t>168</t>
         </is>
       </c>
+      <c r="B169" t="inlineStr"/>
       <c r="C169" t="inlineStr">
         <is>
           <t>14/12/2018</t>
@@ -9334,6 +9356,7 @@
           <t>172</t>
         </is>
       </c>
+      <c r="B173" t="inlineStr"/>
       <c r="C173" t="inlineStr">
         <is>
           <t>07/05/2019</t>
@@ -9693,6 +9716,7 @@
           <t>179</t>
         </is>
       </c>
+      <c r="B180" t="inlineStr"/>
       <c r="C180" t="inlineStr">
         <is>
           <t>17/06/2019</t>
@@ -10260,6 +10284,7 @@
           <t>190</t>
         </is>
       </c>
+      <c r="B191" t="inlineStr"/>
       <c r="C191" t="inlineStr">
         <is>
           <t>22/01/2021</t>
@@ -11087,6 +11112,7 @@
           <t>206</t>
         </is>
       </c>
+      <c r="B207" t="inlineStr"/>
       <c r="C207" t="inlineStr">
         <is>
           <t>23/03/2022</t>
@@ -11186,6 +11212,7 @@
           <t>208</t>
         </is>
       </c>
+      <c r="B209" t="inlineStr"/>
       <c r="C209" t="inlineStr">
         <is>
           <t>13/07/2022</t>
@@ -17208,585 +17235,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4479</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>10.74%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4481</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4537</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3.65%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4538</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4539</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>15.10%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4550</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>7.96%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4557</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>12.89%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4559</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>6</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4606</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4611</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4616</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>4</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>13.41%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4626</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>5</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>6.60%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4627</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>5</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>27.59%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4628</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>15.23%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4679</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>6</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>7.49%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4682</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>6</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>28.41%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4685</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4711</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>6</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>14.83%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4713</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>6</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>16.49%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4717</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>6</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>3.25%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>